--- a/regression-comp.xlsx
+++ b/regression-comp.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carson/fin372-quant-backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D6EA07-0F6C-0D48-9518-AC3830A23211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209BE37-B191-D341-9889-E19C6B635220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="14040" windowHeight="16100" xr2:uid="{00C08F66-A4E5-0D45-AA1D-1271C4F9B972}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00C08F66-A4E5-0D45-AA1D-1271C4F9B972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,73 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>arith mean</t>
-  </si>
-  <si>
-    <t>arith mean (ann)</t>
-  </si>
-  <si>
-    <t>geomean mean</t>
-  </si>
-  <si>
-    <t>geomean mean (ann)</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>sigma (ann)</t>
-  </si>
-  <si>
-    <t>avg drawdown</t>
-  </si>
-  <si>
-    <t>max drawdown</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>alpha SE</t>
-  </si>
-  <si>
-    <t>alpha (ann)</t>
-  </si>
-  <si>
-    <t>alpha SE (ann)</t>
-  </si>
-  <si>
-    <t>mkt_beta</t>
-  </si>
-  <si>
-    <t>mkt_betaSE</t>
-  </si>
-  <si>
-    <t>bit_beta</t>
-  </si>
-  <si>
-    <t>bit_betaSE</t>
-  </si>
-  <si>
-    <t>bank_beta</t>
-  </si>
-  <si>
-    <t>bank_betaSE</t>
-  </si>
-  <si>
-    <t>Sharpe ratio</t>
-  </si>
-  <si>
-    <t>Sharpe ratio (ann)</t>
-  </si>
-  <si>
-    <t>information ratio</t>
-  </si>
-  <si>
-    <t>information ratio (ann)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>30 days</t>
   </si>
@@ -114,6 +48,63 @@
   </si>
   <si>
     <t>7 days</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Arithmetic Mean</t>
+  </si>
+  <si>
+    <t>Geometric Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Average Drawdown</t>
+  </si>
+  <si>
+    <t>Maximum Drawdown</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Alpha Standard Error</t>
+  </si>
+  <si>
+    <t>Alpha T-Statistic</t>
+  </si>
+  <si>
+    <t>MKT β</t>
+  </si>
+  <si>
+    <t>MKT β Standard Error</t>
+  </si>
+  <si>
+    <t>MKT β T-Statistic</t>
+  </si>
+  <si>
+    <t>BTC β</t>
+  </si>
+  <si>
+    <t>BTC β Standard Error</t>
+  </si>
+  <si>
+    <t>BTC β T-Statistic</t>
+  </si>
+  <si>
+    <t>Bank β</t>
+  </si>
+  <si>
+    <t>Bank β Standard Error</t>
+  </si>
+  <si>
+    <t>Bank β T-Statistic</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio</t>
   </si>
 </sst>
 </file>
@@ -163,12 +154,13 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -186,6 +178,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{39D2D888-3DF1-0348-831B-71E7B997BEE0}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19" xr:uid="{39D2D888-3DF1-0348-831B-71E7B997BEE0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{38E6BB5C-58F0-C546-B384-EC84E843AD59}" name="Statistics"/>
+    <tableColumn id="2" xr3:uid="{9773DB4C-7463-BD4D-8347-350AEC0389E1}" name="7 days"/>
+    <tableColumn id="3" xr3:uid="{ED4D6F26-B53D-A045-AB6F-2A48917DFE1D}" name="14 days"/>
+    <tableColumn id="4" xr3:uid="{04F5D1CA-2FA8-684B-B9CE-3C58171DA717}" name="30 days"/>
+    <tableColumn id="5" xr3:uid="{EE856A96-0E68-9F45-A0D4-1F42A813049C}" name="60 days"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,406 +511,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9709587-D2A0-D24D-9CF2-B4FED4BA590F}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>8.8350306135129704E-5</v>
+        <v>2.22642771460526E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>1.90160932178787E-4</v>
+        <v>4.7920554909054398E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>2.6075739702129602E-4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4.6411076606303001E-4</v>
+        <v>6.5710864049366699E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.116955913047883</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.22642771460526E-2</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.2117348711064098E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>4.7920554909054398E-2</v>
+        <v>4.7988004346883197E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>6.5710864049366699E-2</v>
+        <v>6.3565147065997196E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.116955913047883</v>
+        <v>0.108720301013225</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8.6814513413635498E-5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.8601785314165101E-4</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.78405451104719E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.58129439336942E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>2.4457994850512999E-4</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.0963335411725501E-4</v>
+        <v>9.0507813865899997E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.16558188901655099</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>2.2117348711064098E-2</v>
+        <v>1.42991177423564E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>4.7988004346883197E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.3565147065997196E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.108720301013225</v>
+        <v>1.9791799404486301E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.55156878157012E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.3170490187975102E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>1.75378949349485E-3</v>
+        <v>3.6825752375371001E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>2.8859442018166698E-3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5.7014563618403499E-3</v>
+        <v>5.4161055639261199E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.14645952143884899</v>
       </c>
       <c r="E6" s="1">
-        <v>1.04306785703355E-2</v>
+        <v>0.28396931401169301</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2.78405451104719E-2</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.39427475113262E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>4.58129439336942E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9.0507813865899997E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.16558188901655099</v>
+        <v>2.8232703694987898E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.8994105748323699E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.2316603066290502E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>1.42991177423564E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.9791799404486301E-2</v>
+        <v>8.6088148225343403E-3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.33763611567466E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>4.55156878157012E-2</v>
+        <v>2.4993362637989701E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>9.3170490187975102E-2</v>
+        <v>4.3281174905401697E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3.6825752375371001E-2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5.4161055639261199E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.14645952143884899</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.28396931401169301</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <f>B7/B8</f>
+        <v>1.6195896646341859</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9:E9" si="0">C7/C8</f>
+        <v>2.1106415537194319</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75996599671037535</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.51561916041020606</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5.53283631401834E-5</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-1.0077050679587101E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>1.12034538472174E-4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7.53734355092212E-5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8.8557948675756007E-5</v>
+        <v>-1.96409039676942E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-3.8242742556422599E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-8.1649094375115902E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3.4161963581485402E-5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5.30807982410582E-5</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.3630997869070001E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.7793766872326798E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>9.9180010468213206E-5</v>
+        <v>1.26670787382321E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>1.7175069406905399E-4</v>
+        <v>2.1935665814594701E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.39427475113262E-2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.8232703694987898E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.8994105748323699E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.2316603066290502E-2</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="5">
+        <f>B10/B11</f>
+        <v>-2.309608116189962</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" ref="C12:E12" si="1">C10/C11</f>
+        <v>-2.897154837948908</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.019065669892568</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.7222072521177543</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>8.6088148225343403E-3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.33763611567466E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.4993362637989701E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4.3281174905401697E-2</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.30161237012966E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.9935132368865101E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7.0280116810627499E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.14386161716224799</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>-1.0077050679587101E-2</v>
+        <v>7.9345263835684801E-4</v>
       </c>
       <c r="C14" s="2">
-        <v>-1.96409039676942E-2</v>
+        <v>1.23286529797956E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>-3.8242742556422599E-2</v>
+        <v>2.3035748747449901E-3</v>
       </c>
       <c r="E14" s="2">
-        <v>-8.1649094375115902E-2</v>
+        <v>3.9891161707861396E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4.3630997869070001E-3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>6.7793766872326798E-3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.26670787382321E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.1935665814594701E-2</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="5">
+        <f>B13/B14</f>
+        <v>16.404411646108507</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" ref="C15:E15" si="2">C13/C14</f>
+        <v>24.280943277358276</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="2"/>
+        <v>30.509152353212585</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
+        <v>36.063531620313036</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1.30161237012966E-2</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-4.4755616483645099E-3</v>
       </c>
       <c r="C16" s="2">
-        <v>2.9935132368865101E-2</v>
+        <v>-8.6859061916509193E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>7.0280116810627499E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.14386161716224799</v>
+        <v>-2.55736495123908E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-5.9470606434377703E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>7.9345263835684801E-4</v>
+        <v>2.6997577522243298E-3</v>
       </c>
       <c r="C17" s="2">
-        <v>1.23286529797956E-3</v>
+        <v>4.1948787927172599E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>2.3035748747449901E-3</v>
+        <v>7.8380155604511701E-3</v>
       </c>
       <c r="E17" s="2">
-        <v>3.9891161707861396E-3</v>
+        <v>1.3573144490269799E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>-4.4755616483645099E-3</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-8.6859061916509193E-3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-2.55736495123908E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-5.9470606434377703E-2</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="5">
+        <f>B16/B17</f>
+        <v>-1.6577641622390364</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18:E18" si="3">C16/C17</f>
+        <v>-2.0705976551052068</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.262770954606109</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.3814907059311485</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2.6997577522243298E-3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4.1948787927172599E-3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>7.8380155604511701E-3</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.3573144490269799E-2</v>
+        <v>22</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.79970694028107203</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.04600470509842</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.72602420987348704</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.70633276225150898</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <v>5.0376802040859502E-2</v>
-      </c>
-      <c r="C20" s="3">
-        <v>6.5892102854616205E-2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4.5735226312795502E-2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4.4494781708923903E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.79970694028107203</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1.04600470509842</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.72602420987348704</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.70633276225150898</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3.1547892917255398E-2</v>
-      </c>
-      <c r="C22" s="4">
-        <v>3.88207569646183E-2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.32200319928243E-2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>8.4901426190633102E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.50080727428292404</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.61626041181395297</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.209861501863984</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.13477683579307201</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>